--- a/Business Analysis/data/user_5.xlsx
+++ b/Business Analysis/data/user_5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E2E73-9819-42A1-B209-564FAE47886E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8982D64C-0156-4438-9648-E03AF84B1D0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="user_5" localSheetId="0">Sheet2!$A$1:$G$104</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="user_5" localSheetId="0">Sheet1!$A$1:$G$104</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,8 +34,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D3DE5986-959B-455D-8FAF-E36BF987A706}" name="user_5" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="user_5" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="737" sourceFile="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\user_5.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,8 +1038,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1052,7 +1080,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="user_5" connectionId="1" xr16:uid="{47DCD08D-6FCB-41BB-B356-F65CCF8A7F23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="user_5" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1351,27 +1379,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0475165-B96A-40C6-9048-4EE005B659FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1595,7 +1623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1691,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +2007,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2043,7 +2071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2171,7 +2199,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2235,7 +2263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2359,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2395,7 +2423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2519,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2615,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +2647,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2679,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2683,7 +2711,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2843,7 +2871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2903,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2907,7 +2935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +2967,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -2971,7 +2999,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3031,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3063,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3067,7 +3095,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3099,7 +3127,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3159,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3163,7 +3191,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3223,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3259,7 +3287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3291,7 +3319,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3351,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3415,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3447,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3451,7 +3479,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +3511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3543,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3607,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3639,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3643,7 +3671,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3675,7 +3703,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3735,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3739,7 +3767,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3799,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3803,7 +3831,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +3863,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3867,7 +3895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3899,7 +3927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3931,7 +3959,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3963,7 +3991,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +4023,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4027,7 +4055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4059,7 +4087,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4091,7 +4119,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4123,7 +4151,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4155,7 +4183,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4215,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4219,7 +4247,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4251,7 +4279,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4283,7 +4311,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4343,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4347,7 +4375,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4379,7 +4407,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4411,7 +4439,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4443,7 +4471,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4475,7 +4503,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4507,7 +4535,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4539,7 +4567,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4571,7 +4599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4603,7 +4631,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4635,7 +4663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4695,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
